--- a/VentasLETTAShop_.xlsx
+++ b/VentasLETTAShop_.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="13260"/>
+    <workbookView windowWidth="12040" windowHeight="8580"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -613,11 +613,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="6">
     <numFmt numFmtId="176" formatCode="&quot;$&quot;#,##0.0"/>
-    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="&quot;$&quot;#,##0.00"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="27">
     <font>
@@ -676,16 +676,23 @@
       <scheme val="major"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -694,14 +701,6 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -724,6 +723,37 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -739,15 +769,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -761,44 +805,8 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -811,16 +819,8 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="40">
+  <fills count="39">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,25 +865,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor theme="5" tint="0.799981688894314"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor theme="4" tint="0.799951170384838"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -895,7 +901,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -907,13 +919,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -925,133 +1045,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1106,16 +1100,16 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
+      <right style="double">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
+      <top style="double">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
+      <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1126,15 +1120,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1183,22 +1168,31 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="double">
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
-      <right style="double">
+      <right style="thin">
         <color rgb="FF3F3F3F"/>
       </right>
-      <top style="double">
+      <top style="thin">
         <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
+      <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
@@ -1208,109 +1202,109 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="13" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1319,41 +1313,41 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="31" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1417,7 +1411,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1441,9 +1435,6 @@
     <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1459,10 +1450,7 @@
     <xf numFmtId="177" fontId="4" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="177" fontId="4" fillId="9" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="4" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1810,8 +1798,8 @@
   <sheetPr/>
   <dimension ref="A1:AC78"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="56" zoomScaleNormal="56" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1882,7 +1870,7 @@
       <c r="T1" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="31" t="s">
+      <c r="U1" s="30" t="s">
         <v>20</v>
       </c>
       <c r="V1" s="11" t="s">
@@ -1947,17 +1935,17 @@
       <c r="R2" s="24"/>
       <c r="S2" s="24"/>
       <c r="T2" s="24"/>
-      <c r="U2" s="32">
+      <c r="U2" s="31">
         <v>40</v>
       </c>
       <c r="V2" s="24"/>
       <c r="W2" s="5"/>
-      <c r="X2" s="33"/>
+      <c r="X2" s="32"/>
       <c r="Y2" s="25"/>
       <c r="Z2" s="26"/>
-      <c r="AA2" s="34"/>
-      <c r="AB2" s="35"/>
-      <c r="AC2" s="36"/>
+      <c r="AA2" s="33"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
     </row>
     <row r="3" ht="40" spans="1:29">
       <c r="A3" s="5" t="s">
@@ -1989,24 +1977,24 @@
       </c>
       <c r="L3" s="21"/>
       <c r="M3" s="28"/>
-      <c r="N3" s="29"/>
+      <c r="N3" s="21"/>
       <c r="O3" s="26"/>
-      <c r="P3" s="30"/>
+      <c r="P3" s="29"/>
       <c r="Q3" s="26"/>
       <c r="R3" s="28"/>
       <c r="S3" s="28"/>
       <c r="T3" s="28"/>
-      <c r="U3" s="32">
+      <c r="U3" s="31">
         <v>40</v>
       </c>
       <c r="V3" s="28"/>
       <c r="W3" s="5"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="29"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="21"/>
       <c r="Z3" s="26"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="35"/>
-      <c r="AC3" s="36"/>
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
     </row>
     <row r="4" ht="20" spans="1:29">
       <c r="A4" s="5" t="s">
@@ -2045,17 +2033,17 @@
       <c r="R4" s="24"/>
       <c r="S4" s="24"/>
       <c r="T4" s="24"/>
-      <c r="U4" s="32">
+      <c r="U4" s="31">
         <v>18</v>
       </c>
       <c r="V4" s="24"/>
       <c r="W4" s="5"/>
-      <c r="X4" s="33"/>
+      <c r="X4" s="32"/>
       <c r="Y4" s="25"/>
       <c r="Z4" s="26"/>
-      <c r="AA4" s="34"/>
-      <c r="AB4" s="35"/>
-      <c r="AC4" s="36"/>
+      <c r="AA4" s="33"/>
+      <c r="AB4" s="34"/>
+      <c r="AC4" s="34"/>
     </row>
     <row r="5" ht="20" spans="1:29">
       <c r="A5" s="5" t="s">
@@ -2087,24 +2075,24 @@
       </c>
       <c r="L5" s="21"/>
       <c r="M5" s="28"/>
-      <c r="N5" s="29"/>
+      <c r="N5" s="21"/>
       <c r="O5" s="26"/>
-      <c r="P5" s="30"/>
+      <c r="P5" s="29"/>
       <c r="Q5" s="26"/>
       <c r="R5" s="28"/>
       <c r="S5" s="28"/>
       <c r="T5" s="28"/>
-      <c r="U5" s="32">
+      <c r="U5" s="31">
         <v>20</v>
       </c>
       <c r="V5" s="28"/>
       <c r="W5" s="5"/>
-      <c r="X5" s="33"/>
-      <c r="Y5" s="29"/>
+      <c r="X5" s="32"/>
+      <c r="Y5" s="21"/>
       <c r="Z5" s="26"/>
-      <c r="AA5" s="34"/>
-      <c r="AB5" s="35"/>
-      <c r="AC5" s="36"/>
+      <c r="AA5" s="33"/>
+      <c r="AB5" s="34"/>
+      <c r="AC5" s="34"/>
     </row>
     <row r="6" ht="20" spans="1:29">
       <c r="A6" s="5" t="s">
@@ -2143,17 +2131,17 @@
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
       <c r="T6" s="24"/>
-      <c r="U6" s="32">
+      <c r="U6" s="31">
         <v>20</v>
       </c>
       <c r="V6" s="24"/>
       <c r="W6" s="5"/>
-      <c r="X6" s="33"/>
+      <c r="X6" s="32"/>
       <c r="Y6" s="25"/>
       <c r="Z6" s="26"/>
-      <c r="AA6" s="34"/>
-      <c r="AB6" s="35"/>
-      <c r="AC6" s="36"/>
+      <c r="AA6" s="33"/>
+      <c r="AB6" s="34"/>
+      <c r="AC6" s="34"/>
     </row>
     <row r="7" ht="40" spans="1:29">
       <c r="A7" s="5" t="s">
@@ -2185,24 +2173,24 @@
       </c>
       <c r="L7" s="21"/>
       <c r="M7" s="28"/>
-      <c r="N7" s="29"/>
+      <c r="N7" s="21"/>
       <c r="O7" s="26"/>
-      <c r="P7" s="30"/>
+      <c r="P7" s="29"/>
       <c r="Q7" s="26"/>
       <c r="R7" s="28"/>
       <c r="S7" s="28"/>
       <c r="T7" s="28"/>
-      <c r="U7" s="32">
+      <c r="U7" s="31">
         <v>20</v>
       </c>
       <c r="V7" s="28"/>
       <c r="W7" s="5"/>
-      <c r="X7" s="33"/>
-      <c r="Y7" s="29"/>
+      <c r="X7" s="32"/>
+      <c r="Y7" s="21"/>
       <c r="Z7" s="26"/>
-      <c r="AA7" s="34"/>
-      <c r="AB7" s="35"/>
-      <c r="AC7" s="36"/>
+      <c r="AA7" s="33"/>
+      <c r="AB7" s="34"/>
+      <c r="AC7" s="34"/>
     </row>
     <row r="8" ht="20" spans="1:29">
       <c r="A8" s="5" t="s">
@@ -2241,17 +2229,17 @@
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
       <c r="T8" s="24"/>
-      <c r="U8" s="32">
+      <c r="U8" s="31">
         <v>18</v>
       </c>
       <c r="V8" s="24"/>
       <c r="W8" s="5"/>
-      <c r="X8" s="33"/>
+      <c r="X8" s="32"/>
       <c r="Y8" s="25"/>
       <c r="Z8" s="26"/>
-      <c r="AA8" s="34"/>
-      <c r="AB8" s="35"/>
-      <c r="AC8" s="36"/>
+      <c r="AA8" s="33"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
     </row>
     <row r="9" ht="40" spans="1:29">
       <c r="A9" s="5" t="s">
@@ -2283,24 +2271,24 @@
       </c>
       <c r="L9" s="21"/>
       <c r="M9" s="28"/>
-      <c r="N9" s="29"/>
+      <c r="N9" s="21"/>
       <c r="O9" s="26"/>
-      <c r="P9" s="30"/>
+      <c r="P9" s="29"/>
       <c r="Q9" s="26"/>
       <c r="R9" s="28"/>
       <c r="S9" s="28"/>
       <c r="T9" s="28"/>
-      <c r="U9" s="32">
+      <c r="U9" s="31">
         <v>18</v>
       </c>
       <c r="V9" s="28"/>
       <c r="W9" s="5"/>
-      <c r="X9" s="33"/>
-      <c r="Y9" s="29"/>
+      <c r="X9" s="32"/>
+      <c r="Y9" s="21"/>
       <c r="Z9" s="26"/>
-      <c r="AA9" s="34"/>
-      <c r="AB9" s="35"/>
-      <c r="AC9" s="36"/>
+      <c r="AA9" s="33"/>
+      <c r="AB9" s="34"/>
+      <c r="AC9" s="34"/>
     </row>
     <row r="10" ht="40" spans="1:29">
       <c r="A10" s="5" t="s">
@@ -2339,17 +2327,17 @@
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
       <c r="T10" s="24"/>
-      <c r="U10" s="32">
+      <c r="U10" s="31">
         <v>15</v>
       </c>
       <c r="V10" s="24"/>
       <c r="W10" s="5"/>
-      <c r="X10" s="33"/>
+      <c r="X10" s="32"/>
       <c r="Y10" s="25"/>
       <c r="Z10" s="26"/>
-      <c r="AA10" s="34"/>
-      <c r="AB10" s="35"/>
-      <c r="AC10" s="36"/>
+      <c r="AA10" s="33"/>
+      <c r="AB10" s="34"/>
+      <c r="AC10" s="34"/>
     </row>
     <row r="11" ht="40" spans="1:29">
       <c r="A11" s="5" t="s">
@@ -2381,24 +2369,24 @@
       </c>
       <c r="L11" s="21"/>
       <c r="M11" s="28"/>
-      <c r="N11" s="29"/>
+      <c r="N11" s="21"/>
       <c r="O11" s="26"/>
-      <c r="P11" s="30"/>
+      <c r="P11" s="29"/>
       <c r="Q11" s="26"/>
       <c r="R11" s="28"/>
       <c r="S11" s="28"/>
       <c r="T11" s="28"/>
-      <c r="U11" s="32">
+      <c r="U11" s="31">
         <v>25</v>
       </c>
       <c r="V11" s="28"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="33"/>
-      <c r="Y11" s="29"/>
+      <c r="X11" s="32"/>
+      <c r="Y11" s="21"/>
       <c r="Z11" s="26"/>
-      <c r="AA11" s="34"/>
-      <c r="AB11" s="35"/>
-      <c r="AC11" s="36"/>
+      <c r="AA11" s="33"/>
+      <c r="AB11" s="34"/>
+      <c r="AC11" s="34"/>
     </row>
     <row r="12" ht="40" spans="1:29">
       <c r="A12" s="5" t="s">
@@ -2437,17 +2425,17 @@
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
       <c r="T12" s="24"/>
-      <c r="U12" s="32">
+      <c r="U12" s="31">
         <v>25</v>
       </c>
       <c r="V12" s="24"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="33"/>
+      <c r="X12" s="32"/>
       <c r="Y12" s="25"/>
       <c r="Z12" s="26"/>
-      <c r="AA12" s="34"/>
-      <c r="AB12" s="35"/>
-      <c r="AC12" s="36"/>
+      <c r="AA12" s="33"/>
+      <c r="AB12" s="34"/>
+      <c r="AC12" s="34"/>
     </row>
     <row r="13" ht="20" spans="1:29">
       <c r="A13" s="5" t="s">
@@ -2479,24 +2467,24 @@
       </c>
       <c r="L13" s="21"/>
       <c r="M13" s="28"/>
-      <c r="N13" s="29"/>
+      <c r="N13" s="21"/>
       <c r="O13" s="26"/>
-      <c r="P13" s="30"/>
+      <c r="P13" s="29"/>
       <c r="Q13" s="26"/>
       <c r="R13" s="28"/>
       <c r="S13" s="28"/>
       <c r="T13" s="28"/>
-      <c r="U13" s="32">
+      <c r="U13" s="31">
         <v>20</v>
       </c>
       <c r="V13" s="28"/>
       <c r="W13" s="5"/>
-      <c r="X13" s="33"/>
-      <c r="Y13" s="29"/>
+      <c r="X13" s="32"/>
+      <c r="Y13" s="21"/>
       <c r="Z13" s="26"/>
-      <c r="AA13" s="34"/>
-      <c r="AB13" s="35"/>
-      <c r="AC13" s="36"/>
+      <c r="AA13" s="33"/>
+      <c r="AB13" s="34"/>
+      <c r="AC13" s="34"/>
     </row>
     <row r="14" ht="20" spans="1:29">
       <c r="A14" s="5" t="s">
@@ -2535,17 +2523,17 @@
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
       <c r="T14" s="24"/>
-      <c r="U14" s="32">
+      <c r="U14" s="31">
         <v>20</v>
       </c>
       <c r="V14" s="24"/>
       <c r="W14" s="5"/>
-      <c r="X14" s="33"/>
+      <c r="X14" s="32"/>
       <c r="Y14" s="25"/>
       <c r="Z14" s="26"/>
-      <c r="AA14" s="34"/>
-      <c r="AB14" s="35"/>
-      <c r="AC14" s="36"/>
+      <c r="AA14" s="33"/>
+      <c r="AB14" s="34"/>
+      <c r="AC14" s="34"/>
     </row>
     <row r="15" ht="20" spans="1:29">
       <c r="A15" s="5" t="s">
@@ -2577,24 +2565,24 @@
       </c>
       <c r="L15" s="21"/>
       <c r="M15" s="28"/>
-      <c r="N15" s="29"/>
+      <c r="N15" s="21"/>
       <c r="O15" s="26"/>
-      <c r="P15" s="30"/>
+      <c r="P15" s="29"/>
       <c r="Q15" s="26"/>
       <c r="R15" s="28"/>
       <c r="S15" s="28"/>
       <c r="T15" s="28"/>
-      <c r="U15" s="32">
+      <c r="U15" s="31">
         <v>6</v>
       </c>
       <c r="V15" s="28"/>
       <c r="W15" s="5"/>
-      <c r="X15" s="33"/>
-      <c r="Y15" s="29"/>
+      <c r="X15" s="32"/>
+      <c r="Y15" s="21"/>
       <c r="Z15" s="26"/>
-      <c r="AA15" s="34"/>
-      <c r="AB15" s="35"/>
-      <c r="AC15" s="36"/>
+      <c r="AA15" s="33"/>
+      <c r="AB15" s="34"/>
+      <c r="AC15" s="34"/>
     </row>
     <row r="16" ht="20" spans="1:29">
       <c r="A16" s="5" t="s">
@@ -2633,17 +2621,17 @@
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
       <c r="T16" s="24"/>
-      <c r="U16" s="32">
+      <c r="U16" s="31">
         <v>6</v>
       </c>
       <c r="V16" s="24"/>
       <c r="W16" s="5"/>
-      <c r="X16" s="33"/>
+      <c r="X16" s="32"/>
       <c r="Y16" s="25"/>
       <c r="Z16" s="26"/>
-      <c r="AA16" s="34"/>
-      <c r="AB16" s="35"/>
-      <c r="AC16" s="36"/>
+      <c r="AA16" s="33"/>
+      <c r="AB16" s="34"/>
+      <c r="AC16" s="34"/>
     </row>
     <row r="17" ht="20" spans="1:29">
       <c r="A17" s="5" t="s">
@@ -2675,24 +2663,24 @@
       </c>
       <c r="L17" s="21"/>
       <c r="M17" s="28"/>
-      <c r="N17" s="29"/>
+      <c r="N17" s="21"/>
       <c r="O17" s="26"/>
-      <c r="P17" s="30"/>
+      <c r="P17" s="29"/>
       <c r="Q17" s="26"/>
       <c r="R17" s="28"/>
       <c r="S17" s="28"/>
       <c r="T17" s="28"/>
-      <c r="U17" s="32">
+      <c r="U17" s="31">
         <v>6</v>
       </c>
       <c r="V17" s="28"/>
       <c r="W17" s="5"/>
-      <c r="X17" s="33"/>
-      <c r="Y17" s="29"/>
+      <c r="X17" s="32"/>
+      <c r="Y17" s="21"/>
       <c r="Z17" s="26"/>
-      <c r="AA17" s="34"/>
-      <c r="AB17" s="35"/>
-      <c r="AC17" s="36"/>
+      <c r="AA17" s="33"/>
+      <c r="AB17" s="34"/>
+      <c r="AC17" s="34"/>
     </row>
     <row r="18" ht="20" spans="1:29">
       <c r="A18" s="5" t="s">
@@ -2731,17 +2719,17 @@
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
       <c r="T18" s="24"/>
-      <c r="U18" s="32">
+      <c r="U18" s="31">
         <v>6</v>
       </c>
       <c r="V18" s="24"/>
       <c r="W18" s="5"/>
-      <c r="X18" s="33"/>
+      <c r="X18" s="32"/>
       <c r="Y18" s="25"/>
       <c r="Z18" s="26"/>
-      <c r="AA18" s="34"/>
-      <c r="AB18" s="35"/>
-      <c r="AC18" s="36"/>
+      <c r="AA18" s="33"/>
+      <c r="AB18" s="34"/>
+      <c r="AC18" s="34"/>
     </row>
     <row r="19" ht="20" spans="1:29">
       <c r="A19" s="5" t="s">
@@ -2773,24 +2761,24 @@
       </c>
       <c r="L19" s="21"/>
       <c r="M19" s="28"/>
-      <c r="N19" s="29"/>
+      <c r="N19" s="21"/>
       <c r="O19" s="26"/>
-      <c r="P19" s="30"/>
+      <c r="P19" s="29"/>
       <c r="Q19" s="26"/>
       <c r="R19" s="28"/>
       <c r="S19" s="28"/>
       <c r="T19" s="28"/>
-      <c r="U19" s="32">
+      <c r="U19" s="31">
         <v>6</v>
       </c>
       <c r="V19" s="28"/>
       <c r="W19" s="5"/>
-      <c r="X19" s="33"/>
-      <c r="Y19" s="29"/>
+      <c r="X19" s="32"/>
+      <c r="Y19" s="21"/>
       <c r="Z19" s="26"/>
-      <c r="AA19" s="34"/>
-      <c r="AB19" s="35"/>
-      <c r="AC19" s="36"/>
+      <c r="AA19" s="33"/>
+      <c r="AB19" s="34"/>
+      <c r="AC19" s="34"/>
     </row>
     <row r="20" ht="20" spans="1:29">
       <c r="A20" s="5" t="s">
@@ -2829,17 +2817,17 @@
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
       <c r="T20" s="24"/>
-      <c r="U20" s="32">
+      <c r="U20" s="31">
         <v>6</v>
       </c>
       <c r="V20" s="24"/>
       <c r="W20" s="5"/>
-      <c r="X20" s="33"/>
+      <c r="X20" s="32"/>
       <c r="Y20" s="25"/>
       <c r="Z20" s="26"/>
-      <c r="AA20" s="34"/>
-      <c r="AB20" s="35"/>
-      <c r="AC20" s="36"/>
+      <c r="AA20" s="33"/>
+      <c r="AB20" s="34"/>
+      <c r="AC20" s="34"/>
     </row>
     <row r="21" ht="20" spans="1:29">
       <c r="A21" s="5" t="s">
@@ -2871,24 +2859,24 @@
       </c>
       <c r="L21" s="21"/>
       <c r="M21" s="28"/>
-      <c r="N21" s="29"/>
+      <c r="N21" s="21"/>
       <c r="O21" s="26"/>
-      <c r="P21" s="30"/>
+      <c r="P21" s="29"/>
       <c r="Q21" s="26"/>
       <c r="R21" s="28"/>
       <c r="S21" s="28"/>
       <c r="T21" s="28"/>
-      <c r="U21" s="32">
+      <c r="U21" s="31">
         <v>6</v>
       </c>
       <c r="V21" s="28"/>
       <c r="W21" s="5"/>
-      <c r="X21" s="33"/>
-      <c r="Y21" s="29"/>
+      <c r="X21" s="32"/>
+      <c r="Y21" s="21"/>
       <c r="Z21" s="26"/>
-      <c r="AA21" s="34"/>
-      <c r="AB21" s="35"/>
-      <c r="AC21" s="36"/>
+      <c r="AA21" s="33"/>
+      <c r="AB21" s="34"/>
+      <c r="AC21" s="34"/>
     </row>
     <row r="22" ht="20" spans="1:29">
       <c r="A22" s="5" t="s">
@@ -2927,17 +2915,17 @@
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
       <c r="T22" s="24"/>
-      <c r="U22" s="32">
+      <c r="U22" s="31">
         <v>6</v>
       </c>
       <c r="V22" s="24"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="33"/>
+      <c r="X22" s="32"/>
       <c r="Y22" s="25"/>
       <c r="Z22" s="26"/>
-      <c r="AA22" s="34"/>
-      <c r="AB22" s="35"/>
-      <c r="AC22" s="36"/>
+      <c r="AA22" s="33"/>
+      <c r="AB22" s="34"/>
+      <c r="AC22" s="34"/>
     </row>
     <row r="23" ht="20" spans="1:29">
       <c r="A23" s="5" t="s">
@@ -2969,24 +2957,24 @@
       </c>
       <c r="L23" s="21"/>
       <c r="M23" s="28"/>
-      <c r="N23" s="29"/>
+      <c r="N23" s="21"/>
       <c r="O23" s="26"/>
-      <c r="P23" s="30"/>
+      <c r="P23" s="29"/>
       <c r="Q23" s="26"/>
       <c r="R23" s="28"/>
       <c r="S23" s="28"/>
       <c r="T23" s="28"/>
-      <c r="U23" s="32">
+      <c r="U23" s="31">
         <v>6</v>
       </c>
       <c r="V23" s="28"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="33"/>
-      <c r="Y23" s="29"/>
+      <c r="X23" s="32"/>
+      <c r="Y23" s="21"/>
       <c r="Z23" s="26"/>
-      <c r="AA23" s="34"/>
-      <c r="AB23" s="35"/>
-      <c r="AC23" s="36"/>
+      <c r="AA23" s="33"/>
+      <c r="AB23" s="34"/>
+      <c r="AC23" s="34"/>
     </row>
     <row r="24" ht="40" spans="1:29">
       <c r="A24" s="5" t="s">
@@ -3025,17 +3013,17 @@
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
       <c r="T24" s="24"/>
-      <c r="U24" s="32">
+      <c r="U24" s="31">
         <v>6</v>
       </c>
       <c r="V24" s="24"/>
       <c r="W24" s="5"/>
-      <c r="X24" s="33"/>
+      <c r="X24" s="32"/>
       <c r="Y24" s="25"/>
       <c r="Z24" s="26"/>
-      <c r="AA24" s="34"/>
-      <c r="AB24" s="35"/>
-      <c r="AC24" s="36"/>
+      <c r="AA24" s="33"/>
+      <c r="AB24" s="34"/>
+      <c r="AC24" s="34"/>
     </row>
     <row r="25" ht="40" spans="1:29">
       <c r="A25" s="5" t="s">
@@ -3067,24 +3055,24 @@
       </c>
       <c r="L25" s="21"/>
       <c r="M25" s="28"/>
-      <c r="N25" s="29"/>
+      <c r="N25" s="21"/>
       <c r="O25" s="26"/>
-      <c r="P25" s="30"/>
+      <c r="P25" s="29"/>
       <c r="Q25" s="26"/>
       <c r="R25" s="28"/>
       <c r="S25" s="28"/>
       <c r="T25" s="28"/>
-      <c r="U25" s="32">
+      <c r="U25" s="31">
         <v>6</v>
       </c>
       <c r="V25" s="28"/>
       <c r="W25" s="5"/>
-      <c r="X25" s="33"/>
-      <c r="Y25" s="29"/>
+      <c r="X25" s="32"/>
+      <c r="Y25" s="21"/>
       <c r="Z25" s="26"/>
-      <c r="AA25" s="34"/>
-      <c r="AB25" s="35"/>
-      <c r="AC25" s="36"/>
+      <c r="AA25" s="33"/>
+      <c r="AB25" s="34"/>
+      <c r="AC25" s="34"/>
     </row>
     <row r="26" ht="40" spans="1:29">
       <c r="A26" s="5" t="s">
@@ -3123,17 +3111,17 @@
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
       <c r="T26" s="24"/>
-      <c r="U26" s="32">
+      <c r="U26" s="31">
         <v>6</v>
       </c>
       <c r="V26" s="24"/>
       <c r="W26" s="5"/>
-      <c r="X26" s="33"/>
+      <c r="X26" s="32"/>
       <c r="Y26" s="25"/>
       <c r="Z26" s="26"/>
-      <c r="AA26" s="34"/>
-      <c r="AB26" s="35"/>
-      <c r="AC26" s="36"/>
+      <c r="AA26" s="33"/>
+      <c r="AB26" s="34"/>
+      <c r="AC26" s="34"/>
     </row>
     <row r="27" ht="40" spans="1:29">
       <c r="A27" s="5" t="s">
@@ -3165,24 +3153,24 @@
       </c>
       <c r="L27" s="21"/>
       <c r="M27" s="28"/>
-      <c r="N27" s="29"/>
+      <c r="N27" s="21"/>
       <c r="O27" s="26"/>
-      <c r="P27" s="30"/>
+      <c r="P27" s="29"/>
       <c r="Q27" s="26"/>
       <c r="R27" s="28"/>
       <c r="S27" s="28"/>
       <c r="T27" s="28"/>
-      <c r="U27" s="32">
+      <c r="U27" s="31">
         <v>6</v>
       </c>
       <c r="V27" s="28"/>
       <c r="W27" s="5"/>
-      <c r="X27" s="33"/>
-      <c r="Y27" s="29"/>
+      <c r="X27" s="32"/>
+      <c r="Y27" s="21"/>
       <c r="Z27" s="26"/>
-      <c r="AA27" s="34"/>
-      <c r="AB27" s="35"/>
-      <c r="AC27" s="36"/>
+      <c r="AA27" s="33"/>
+      <c r="AB27" s="34"/>
+      <c r="AC27" s="34"/>
     </row>
     <row r="28" ht="40" spans="1:29">
       <c r="A28" s="5" t="s">
@@ -3221,17 +3209,17 @@
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
       <c r="T28" s="24"/>
-      <c r="U28" s="32">
+      <c r="U28" s="31">
         <v>6</v>
       </c>
       <c r="V28" s="24"/>
       <c r="W28" s="5"/>
-      <c r="X28" s="33"/>
+      <c r="X28" s="32"/>
       <c r="Y28" s="25"/>
       <c r="Z28" s="26"/>
-      <c r="AA28" s="34"/>
-      <c r="AB28" s="35"/>
-      <c r="AC28" s="36"/>
+      <c r="AA28" s="33"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
     </row>
     <row r="29" ht="20" spans="1:29">
       <c r="A29" s="5" t="s">
@@ -3263,24 +3251,24 @@
       </c>
       <c r="L29" s="21"/>
       <c r="M29" s="28"/>
-      <c r="N29" s="29"/>
+      <c r="N29" s="21"/>
       <c r="O29" s="26"/>
-      <c r="P29" s="30"/>
+      <c r="P29" s="29"/>
       <c r="Q29" s="26"/>
       <c r="R29" s="28"/>
       <c r="S29" s="28"/>
       <c r="T29" s="28"/>
-      <c r="U29" s="32">
+      <c r="U29" s="31">
         <v>6</v>
       </c>
       <c r="V29" s="28"/>
       <c r="W29" s="5"/>
-      <c r="X29" s="33"/>
-      <c r="Y29" s="29"/>
+      <c r="X29" s="32"/>
+      <c r="Y29" s="21"/>
       <c r="Z29" s="26"/>
-      <c r="AA29" s="34"/>
-      <c r="AB29" s="35"/>
-      <c r="AC29" s="36"/>
+      <c r="AA29" s="33"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
     </row>
     <row r="30" ht="40" spans="1:29">
       <c r="A30" s="5" t="s">
@@ -3319,17 +3307,17 @@
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
       <c r="T30" s="24"/>
-      <c r="U30" s="32">
+      <c r="U30" s="31">
         <v>15</v>
       </c>
       <c r="V30" s="24"/>
       <c r="W30" s="5"/>
-      <c r="X30" s="33"/>
+      <c r="X30" s="32"/>
       <c r="Y30" s="25"/>
       <c r="Z30" s="26"/>
-      <c r="AA30" s="34"/>
-      <c r="AB30" s="35"/>
-      <c r="AC30" s="36"/>
+      <c r="AA30" s="33"/>
+      <c r="AB30" s="34"/>
+      <c r="AC30" s="34"/>
     </row>
     <row r="31" ht="40" spans="1:29">
       <c r="A31" s="5" t="s">
@@ -3361,24 +3349,24 @@
       </c>
       <c r="L31" s="21"/>
       <c r="M31" s="28"/>
-      <c r="N31" s="29"/>
+      <c r="N31" s="21"/>
       <c r="O31" s="26"/>
-      <c r="P31" s="30"/>
+      <c r="P31" s="29"/>
       <c r="Q31" s="26"/>
       <c r="R31" s="28"/>
       <c r="S31" s="28"/>
       <c r="T31" s="28"/>
-      <c r="U31" s="32">
+      <c r="U31" s="31">
         <v>6</v>
       </c>
       <c r="V31" s="28"/>
       <c r="W31" s="5"/>
-      <c r="X31" s="33"/>
-      <c r="Y31" s="29"/>
+      <c r="X31" s="32"/>
+      <c r="Y31" s="21"/>
       <c r="Z31" s="26"/>
-      <c r="AA31" s="34"/>
-      <c r="AB31" s="35"/>
-      <c r="AC31" s="36"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="34"/>
+      <c r="AC31" s="34"/>
     </row>
     <row r="32" ht="20" spans="1:29">
       <c r="A32" s="5" t="s">
@@ -3417,17 +3405,17 @@
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
       <c r="T32" s="24"/>
-      <c r="U32" s="32">
+      <c r="U32" s="31">
         <v>6</v>
       </c>
       <c r="V32" s="24"/>
       <c r="W32" s="5"/>
-      <c r="X32" s="33"/>
+      <c r="X32" s="32"/>
       <c r="Y32" s="25"/>
       <c r="Z32" s="26"/>
-      <c r="AA32" s="34"/>
-      <c r="AB32" s="35"/>
-      <c r="AC32" s="36"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="34"/>
+      <c r="AC32" s="34"/>
     </row>
     <row r="33" ht="20" spans="1:29">
       <c r="A33" s="5" t="s">
@@ -3459,24 +3447,24 @@
       </c>
       <c r="L33" s="21"/>
       <c r="M33" s="28"/>
-      <c r="N33" s="29"/>
+      <c r="N33" s="21"/>
       <c r="O33" s="26"/>
-      <c r="P33" s="30"/>
+      <c r="P33" s="29"/>
       <c r="Q33" s="26"/>
       <c r="R33" s="28"/>
       <c r="S33" s="28"/>
       <c r="T33" s="28"/>
-      <c r="U33" s="32">
+      <c r="U33" s="31">
         <v>6</v>
       </c>
       <c r="V33" s="28"/>
       <c r="W33" s="5"/>
-      <c r="X33" s="33"/>
-      <c r="Y33" s="29"/>
+      <c r="X33" s="32"/>
+      <c r="Y33" s="21"/>
       <c r="Z33" s="26"/>
-      <c r="AA33" s="34"/>
-      <c r="AB33" s="35"/>
-      <c r="AC33" s="36"/>
+      <c r="AA33" s="33"/>
+      <c r="AB33" s="34"/>
+      <c r="AC33" s="34"/>
     </row>
     <row r="34" ht="20" spans="1:29">
       <c r="A34" s="5" t="s">
@@ -3515,17 +3503,17 @@
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
       <c r="T34" s="24"/>
-      <c r="U34" s="32">
+      <c r="U34" s="31">
         <v>6</v>
       </c>
       <c r="V34" s="24"/>
       <c r="W34" s="5"/>
-      <c r="X34" s="33"/>
+      <c r="X34" s="32"/>
       <c r="Y34" s="25"/>
       <c r="Z34" s="26"/>
-      <c r="AA34" s="34"/>
-      <c r="AB34" s="35"/>
-      <c r="AC34" s="36"/>
+      <c r="AA34" s="33"/>
+      <c r="AB34" s="34"/>
+      <c r="AC34" s="34"/>
     </row>
     <row r="35" ht="20" spans="1:29">
       <c r="A35" s="5" t="s">
@@ -3557,24 +3545,24 @@
       </c>
       <c r="L35" s="21"/>
       <c r="M35" s="28"/>
-      <c r="N35" s="29"/>
+      <c r="N35" s="21"/>
       <c r="O35" s="26"/>
-      <c r="P35" s="30"/>
+      <c r="P35" s="29"/>
       <c r="Q35" s="26"/>
       <c r="R35" s="28"/>
       <c r="S35" s="28"/>
       <c r="T35" s="28"/>
-      <c r="U35" s="32">
+      <c r="U35" s="31">
         <v>6</v>
       </c>
       <c r="V35" s="28"/>
       <c r="W35" s="5"/>
-      <c r="X35" s="33"/>
-      <c r="Y35" s="29"/>
+      <c r="X35" s="32"/>
+      <c r="Y35" s="21"/>
       <c r="Z35" s="26"/>
-      <c r="AA35" s="34"/>
-      <c r="AB35" s="35"/>
-      <c r="AC35" s="36"/>
+      <c r="AA35" s="33"/>
+      <c r="AB35" s="34"/>
+      <c r="AC35" s="34"/>
     </row>
     <row r="36" ht="20" spans="1:29">
       <c r="A36" s="5" t="s">
@@ -3613,17 +3601,17 @@
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
       <c r="T36" s="24"/>
-      <c r="U36" s="32">
+      <c r="U36" s="31">
         <v>6</v>
       </c>
       <c r="V36" s="24"/>
       <c r="W36" s="5"/>
-      <c r="X36" s="33"/>
+      <c r="X36" s="32"/>
       <c r="Y36" s="25"/>
       <c r="Z36" s="26"/>
-      <c r="AA36" s="34"/>
-      <c r="AB36" s="35"/>
-      <c r="AC36" s="36"/>
+      <c r="AA36" s="33"/>
+      <c r="AB36" s="34"/>
+      <c r="AC36" s="34"/>
     </row>
     <row r="37" ht="20" spans="1:29">
       <c r="A37" s="5" t="s">
@@ -3655,24 +3643,24 @@
       </c>
       <c r="L37" s="21"/>
       <c r="M37" s="28"/>
-      <c r="N37" s="29"/>
+      <c r="N37" s="21"/>
       <c r="O37" s="26"/>
-      <c r="P37" s="30"/>
+      <c r="P37" s="29"/>
       <c r="Q37" s="26"/>
       <c r="R37" s="28"/>
       <c r="S37" s="28"/>
       <c r="T37" s="28"/>
-      <c r="U37" s="32">
+      <c r="U37" s="31">
         <v>6</v>
       </c>
       <c r="V37" s="28"/>
       <c r="W37" s="5"/>
-      <c r="X37" s="33"/>
-      <c r="Y37" s="29"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="21"/>
       <c r="Z37" s="26"/>
-      <c r="AA37" s="34"/>
-      <c r="AB37" s="35"/>
-      <c r="AC37" s="36"/>
+      <c r="AA37" s="33"/>
+      <c r="AB37" s="34"/>
+      <c r="AC37" s="34"/>
     </row>
     <row r="38" ht="40" spans="1:29">
       <c r="A38" s="5" t="s">
@@ -3711,17 +3699,17 @@
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
       <c r="T38" s="24"/>
-      <c r="U38" s="32">
+      <c r="U38" s="31">
         <v>6</v>
       </c>
       <c r="V38" s="24"/>
       <c r="W38" s="5"/>
-      <c r="X38" s="33"/>
+      <c r="X38" s="32"/>
       <c r="Y38" s="25"/>
       <c r="Z38" s="26"/>
-      <c r="AA38" s="34"/>
-      <c r="AB38" s="35"/>
-      <c r="AC38" s="36"/>
+      <c r="AA38" s="33"/>
+      <c r="AB38" s="34"/>
+      <c r="AC38" s="34"/>
     </row>
     <row r="39" ht="20" spans="1:29">
       <c r="A39" s="5" t="s">
@@ -3753,24 +3741,24 @@
       </c>
       <c r="L39" s="21"/>
       <c r="M39" s="28"/>
-      <c r="N39" s="29"/>
+      <c r="N39" s="21"/>
       <c r="O39" s="26"/>
-      <c r="P39" s="30"/>
+      <c r="P39" s="29"/>
       <c r="Q39" s="26"/>
       <c r="R39" s="28"/>
       <c r="S39" s="28"/>
       <c r="T39" s="28"/>
-      <c r="U39" s="32">
+      <c r="U39" s="31">
         <v>6</v>
       </c>
       <c r="V39" s="28"/>
       <c r="W39" s="5"/>
-      <c r="X39" s="33"/>
-      <c r="Y39" s="29"/>
+      <c r="X39" s="32"/>
+      <c r="Y39" s="21"/>
       <c r="Z39" s="26"/>
-      <c r="AA39" s="34"/>
-      <c r="AB39" s="35"/>
-      <c r="AC39" s="36"/>
+      <c r="AA39" s="33"/>
+      <c r="AB39" s="34"/>
+      <c r="AC39" s="34"/>
     </row>
     <row r="40" ht="40" spans="1:29">
       <c r="A40" s="5" t="s">
@@ -3809,17 +3797,17 @@
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
       <c r="T40" s="24"/>
-      <c r="U40" s="32">
+      <c r="U40" s="31">
         <v>6</v>
       </c>
       <c r="V40" s="24"/>
       <c r="W40" s="5"/>
-      <c r="X40" s="33"/>
+      <c r="X40" s="32"/>
       <c r="Y40" s="25"/>
       <c r="Z40" s="26"/>
-      <c r="AA40" s="34"/>
-      <c r="AB40" s="35"/>
-      <c r="AC40" s="36"/>
+      <c r="AA40" s="33"/>
+      <c r="AB40" s="34"/>
+      <c r="AC40" s="34"/>
     </row>
     <row r="41" ht="40" spans="1:29">
       <c r="A41" s="5" t="s">
@@ -3851,24 +3839,24 @@
       </c>
       <c r="L41" s="21"/>
       <c r="M41" s="28"/>
-      <c r="N41" s="29"/>
+      <c r="N41" s="21"/>
       <c r="O41" s="26"/>
-      <c r="P41" s="30"/>
+      <c r="P41" s="29"/>
       <c r="Q41" s="26"/>
       <c r="R41" s="28"/>
       <c r="S41" s="28"/>
       <c r="T41" s="28"/>
-      <c r="U41" s="32">
+      <c r="U41" s="31">
         <v>6</v>
       </c>
       <c r="V41" s="28"/>
       <c r="W41" s="5"/>
-      <c r="X41" s="33"/>
-      <c r="Y41" s="29"/>
+      <c r="X41" s="32"/>
+      <c r="Y41" s="21"/>
       <c r="Z41" s="26"/>
-      <c r="AA41" s="34"/>
-      <c r="AB41" s="35"/>
-      <c r="AC41" s="36"/>
+      <c r="AA41" s="33"/>
+      <c r="AB41" s="34"/>
+      <c r="AC41" s="34"/>
     </row>
     <row r="42" ht="40" spans="1:29">
       <c r="A42" s="5" t="s">
@@ -3907,17 +3895,17 @@
       <c r="R42" s="24"/>
       <c r="S42" s="24"/>
       <c r="T42" s="24"/>
-      <c r="U42" s="32">
+      <c r="U42" s="31">
         <v>6</v>
       </c>
       <c r="V42" s="24"/>
       <c r="W42" s="5"/>
-      <c r="X42" s="33"/>
+      <c r="X42" s="32"/>
       <c r="Y42" s="25"/>
       <c r="Z42" s="26"/>
-      <c r="AA42" s="34"/>
-      <c r="AB42" s="35"/>
-      <c r="AC42" s="36"/>
+      <c r="AA42" s="33"/>
+      <c r="AB42" s="34"/>
+      <c r="AC42" s="34"/>
     </row>
     <row r="43" ht="40" spans="1:29">
       <c r="A43" s="5" t="s">
@@ -3949,24 +3937,24 @@
       </c>
       <c r="L43" s="21"/>
       <c r="M43" s="28"/>
-      <c r="N43" s="29"/>
+      <c r="N43" s="21"/>
       <c r="O43" s="26"/>
-      <c r="P43" s="30"/>
+      <c r="P43" s="29"/>
       <c r="Q43" s="26"/>
       <c r="R43" s="28"/>
       <c r="S43" s="28"/>
       <c r="T43" s="28"/>
-      <c r="U43" s="32">
+      <c r="U43" s="31">
         <v>5</v>
       </c>
       <c r="V43" s="28"/>
       <c r="W43" s="5"/>
-      <c r="X43" s="33"/>
-      <c r="Y43" s="29"/>
+      <c r="X43" s="32"/>
+      <c r="Y43" s="21"/>
       <c r="Z43" s="26"/>
-      <c r="AA43" s="34"/>
-      <c r="AB43" s="35"/>
-      <c r="AC43" s="36"/>
+      <c r="AA43" s="33"/>
+      <c r="AB43" s="34"/>
+      <c r="AC43" s="34"/>
     </row>
     <row r="44" ht="40" spans="1:29">
       <c r="A44" s="5" t="s">
@@ -4005,17 +3993,17 @@
       <c r="R44" s="24"/>
       <c r="S44" s="24"/>
       <c r="T44" s="24"/>
-      <c r="U44" s="32">
+      <c r="U44" s="31">
         <v>5</v>
       </c>
       <c r="V44" s="24"/>
       <c r="W44" s="5"/>
-      <c r="X44" s="33"/>
+      <c r="X44" s="32"/>
       <c r="Y44" s="25"/>
       <c r="Z44" s="26"/>
-      <c r="AA44" s="34"/>
-      <c r="AB44" s="35"/>
-      <c r="AC44" s="36"/>
+      <c r="AA44" s="33"/>
+      <c r="AB44" s="34"/>
+      <c r="AC44" s="34"/>
     </row>
     <row r="45" ht="20" spans="1:29">
       <c r="A45" s="5" t="s">
@@ -4047,24 +4035,24 @@
       </c>
       <c r="L45" s="21"/>
       <c r="M45" s="28"/>
-      <c r="N45" s="29"/>
+      <c r="N45" s="21"/>
       <c r="O45" s="26"/>
-      <c r="P45" s="30"/>
+      <c r="P45" s="29"/>
       <c r="Q45" s="26"/>
       <c r="R45" s="28"/>
       <c r="S45" s="28"/>
       <c r="T45" s="28"/>
-      <c r="U45" s="32">
+      <c r="U45" s="31">
         <v>5</v>
       </c>
       <c r="V45" s="28"/>
       <c r="W45" s="5"/>
-      <c r="X45" s="33"/>
-      <c r="Y45" s="29"/>
+      <c r="X45" s="32"/>
+      <c r="Y45" s="21"/>
       <c r="Z45" s="26"/>
-      <c r="AA45" s="34"/>
-      <c r="AB45" s="35"/>
-      <c r="AC45" s="36"/>
+      <c r="AA45" s="33"/>
+      <c r="AB45" s="34"/>
+      <c r="AC45" s="34"/>
     </row>
     <row r="46" ht="40" spans="1:29">
       <c r="A46" s="5" t="s">
@@ -4103,17 +4091,17 @@
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
       <c r="T46" s="24"/>
-      <c r="U46" s="32">
+      <c r="U46" s="31">
         <v>5</v>
       </c>
       <c r="V46" s="24"/>
       <c r="W46" s="5"/>
-      <c r="X46" s="33"/>
+      <c r="X46" s="32"/>
       <c r="Y46" s="25"/>
       <c r="Z46" s="26"/>
-      <c r="AA46" s="34"/>
-      <c r="AB46" s="35"/>
-      <c r="AC46" s="36"/>
+      <c r="AA46" s="33"/>
+      <c r="AB46" s="34"/>
+      <c r="AC46" s="34"/>
     </row>
     <row r="47" ht="40" spans="1:29">
       <c r="A47" s="5" t="s">
@@ -4145,24 +4133,24 @@
       </c>
       <c r="L47" s="21"/>
       <c r="M47" s="28"/>
-      <c r="N47" s="29"/>
+      <c r="N47" s="21"/>
       <c r="O47" s="26"/>
-      <c r="P47" s="30"/>
+      <c r="P47" s="29"/>
       <c r="Q47" s="26"/>
       <c r="R47" s="28"/>
       <c r="S47" s="28"/>
       <c r="T47" s="28"/>
-      <c r="U47" s="32">
+      <c r="U47" s="31">
         <v>18</v>
       </c>
       <c r="V47" s="28"/>
       <c r="W47" s="5"/>
-      <c r="X47" s="33"/>
-      <c r="Y47" s="29"/>
+      <c r="X47" s="32"/>
+      <c r="Y47" s="21"/>
       <c r="Z47" s="26"/>
-      <c r="AA47" s="34"/>
-      <c r="AB47" s="35"/>
-      <c r="AC47" s="36"/>
+      <c r="AA47" s="33"/>
+      <c r="AB47" s="34"/>
+      <c r="AC47" s="34"/>
     </row>
     <row r="48" ht="40" spans="1:29">
       <c r="A48" s="5" t="s">
@@ -4201,17 +4189,17 @@
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
       <c r="T48" s="24"/>
-      <c r="U48" s="32">
+      <c r="U48" s="31">
         <v>18</v>
       </c>
       <c r="V48" s="24"/>
       <c r="W48" s="5"/>
-      <c r="X48" s="33"/>
+      <c r="X48" s="32"/>
       <c r="Y48" s="25"/>
       <c r="Z48" s="26"/>
-      <c r="AA48" s="34"/>
-      <c r="AB48" s="35"/>
-      <c r="AC48" s="36"/>
+      <c r="AA48" s="33"/>
+      <c r="AB48" s="34"/>
+      <c r="AC48" s="34"/>
     </row>
     <row r="49" ht="40" spans="1:29">
       <c r="A49" s="5" t="s">
@@ -4243,24 +4231,24 @@
       </c>
       <c r="L49" s="21"/>
       <c r="M49" s="28"/>
-      <c r="N49" s="29"/>
+      <c r="N49" s="21"/>
       <c r="O49" s="26"/>
-      <c r="P49" s="30"/>
+      <c r="P49" s="29"/>
       <c r="Q49" s="26"/>
       <c r="R49" s="28"/>
       <c r="S49" s="28"/>
       <c r="T49" s="28"/>
-      <c r="U49" s="32">
+      <c r="U49" s="31">
         <v>18</v>
       </c>
       <c r="V49" s="28"/>
       <c r="W49" s="5"/>
-      <c r="X49" s="33"/>
-      <c r="Y49" s="29"/>
+      <c r="X49" s="32"/>
+      <c r="Y49" s="21"/>
       <c r="Z49" s="26"/>
-      <c r="AA49" s="34"/>
-      <c r="AB49" s="35"/>
-      <c r="AC49" s="36"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="34"/>
+      <c r="AC49" s="34"/>
     </row>
     <row r="50" ht="40" spans="1:29">
       <c r="A50" s="5" t="s">
@@ -4299,17 +4287,17 @@
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
       <c r="T50" s="24"/>
-      <c r="U50" s="32">
+      <c r="U50" s="31">
         <v>18</v>
       </c>
       <c r="V50" s="24"/>
       <c r="W50" s="5"/>
-      <c r="X50" s="33"/>
+      <c r="X50" s="32"/>
       <c r="Y50" s="25"/>
       <c r="Z50" s="26"/>
-      <c r="AA50" s="34"/>
-      <c r="AB50" s="35"/>
-      <c r="AC50" s="36"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="34"/>
+      <c r="AC50" s="34"/>
     </row>
     <row r="51" ht="40" spans="1:29">
       <c r="A51" s="5" t="s">
@@ -4341,24 +4329,24 @@
       </c>
       <c r="L51" s="21"/>
       <c r="M51" s="28"/>
-      <c r="N51" s="29"/>
+      <c r="N51" s="21"/>
       <c r="O51" s="26"/>
-      <c r="P51" s="30"/>
+      <c r="P51" s="29"/>
       <c r="Q51" s="26"/>
       <c r="R51" s="28"/>
       <c r="S51" s="28"/>
       <c r="T51" s="28"/>
-      <c r="U51" s="32">
+      <c r="U51" s="31">
         <v>18</v>
       </c>
       <c r="V51" s="28"/>
       <c r="W51" s="5"/>
-      <c r="X51" s="33"/>
-      <c r="Y51" s="29"/>
+      <c r="X51" s="32"/>
+      <c r="Y51" s="21"/>
       <c r="Z51" s="26"/>
-      <c r="AA51" s="34"/>
-      <c r="AB51" s="35"/>
-      <c r="AC51" s="36"/>
+      <c r="AA51" s="33"/>
+      <c r="AB51" s="34"/>
+      <c r="AC51" s="34"/>
     </row>
     <row r="52" ht="40" spans="1:29">
       <c r="A52" s="5" t="s">
@@ -4397,17 +4385,17 @@
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
       <c r="T52" s="24"/>
-      <c r="U52" s="32">
+      <c r="U52" s="31">
         <v>30</v>
       </c>
       <c r="V52" s="24"/>
       <c r="W52" s="5"/>
-      <c r="X52" s="33"/>
+      <c r="X52" s="32"/>
       <c r="Y52" s="25"/>
       <c r="Z52" s="26"/>
-      <c r="AA52" s="34"/>
-      <c r="AB52" s="35"/>
-      <c r="AC52" s="36"/>
+      <c r="AA52" s="33"/>
+      <c r="AB52" s="34"/>
+      <c r="AC52" s="34"/>
     </row>
     <row r="53" ht="40" spans="1:29">
       <c r="A53" s="5" t="s">
@@ -4439,24 +4427,24 @@
       </c>
       <c r="L53" s="21"/>
       <c r="M53" s="28"/>
-      <c r="N53" s="29"/>
+      <c r="N53" s="21"/>
       <c r="O53" s="26"/>
-      <c r="P53" s="30"/>
+      <c r="P53" s="29"/>
       <c r="Q53" s="26"/>
       <c r="R53" s="28"/>
       <c r="S53" s="28"/>
       <c r="T53" s="28"/>
-      <c r="U53" s="32">
+      <c r="U53" s="31">
         <v>30</v>
       </c>
       <c r="V53" s="28"/>
       <c r="W53" s="5"/>
-      <c r="X53" s="33"/>
-      <c r="Y53" s="29"/>
+      <c r="X53" s="32"/>
+      <c r="Y53" s="21"/>
       <c r="Z53" s="26"/>
-      <c r="AA53" s="34"/>
-      <c r="AB53" s="35"/>
-      <c r="AC53" s="36"/>
+      <c r="AA53" s="33"/>
+      <c r="AB53" s="34"/>
+      <c r="AC53" s="34"/>
     </row>
     <row r="54" ht="40" spans="1:28">
       <c r="A54" s="5" t="s">
@@ -4495,16 +4483,16 @@
       <c r="R54" s="24"/>
       <c r="S54" s="24"/>
       <c r="T54" s="24"/>
-      <c r="U54" s="32">
+      <c r="U54" s="31">
         <v>25</v>
       </c>
       <c r="V54" s="24"/>
       <c r="W54" s="5"/>
-      <c r="X54" s="33"/>
+      <c r="X54" s="32"/>
       <c r="Y54" s="25"/>
       <c r="Z54" s="26"/>
-      <c r="AA54" s="34"/>
-      <c r="AB54" s="35"/>
+      <c r="AA54" s="33"/>
+      <c r="AB54" s="34"/>
     </row>
     <row r="55" ht="40" spans="1:28">
       <c r="A55" s="5" t="s">
@@ -4536,23 +4524,23 @@
       </c>
       <c r="L55" s="21"/>
       <c r="M55" s="28"/>
-      <c r="N55" s="29"/>
+      <c r="N55" s="21"/>
       <c r="O55" s="26"/>
-      <c r="P55" s="30"/>
+      <c r="P55" s="29"/>
       <c r="Q55" s="26"/>
       <c r="R55" s="28"/>
       <c r="S55" s="28"/>
       <c r="T55" s="28"/>
-      <c r="U55" s="32">
+      <c r="U55" s="31">
         <v>30</v>
       </c>
       <c r="V55" s="28"/>
       <c r="W55" s="5"/>
-      <c r="X55" s="33"/>
-      <c r="Y55" s="29"/>
+      <c r="X55" s="32"/>
+      <c r="Y55" s="21"/>
       <c r="Z55" s="26"/>
-      <c r="AA55" s="34"/>
-      <c r="AB55" s="35"/>
+      <c r="AA55" s="33"/>
+      <c r="AB55" s="34"/>
     </row>
     <row r="56" ht="40" spans="1:28">
       <c r="A56" s="5" t="s">
@@ -4591,16 +4579,16 @@
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
       <c r="T56" s="24"/>
-      <c r="U56" s="32">
+      <c r="U56" s="31">
         <v>25</v>
       </c>
       <c r="V56" s="24"/>
       <c r="W56" s="5"/>
-      <c r="X56" s="33"/>
+      <c r="X56" s="32"/>
       <c r="Y56" s="25"/>
       <c r="Z56" s="26"/>
-      <c r="AA56" s="34"/>
-      <c r="AB56" s="35"/>
+      <c r="AA56" s="33"/>
+      <c r="AB56" s="34"/>
     </row>
     <row r="57" ht="40" spans="1:28">
       <c r="A57" s="5" t="s">
@@ -4632,23 +4620,23 @@
       </c>
       <c r="L57" s="21"/>
       <c r="M57" s="28"/>
-      <c r="N57" s="29"/>
+      <c r="N57" s="21"/>
       <c r="O57" s="26"/>
-      <c r="P57" s="30"/>
+      <c r="P57" s="29"/>
       <c r="Q57" s="26"/>
       <c r="R57" s="28"/>
       <c r="S57" s="28"/>
       <c r="T57" s="28"/>
-      <c r="U57" s="32">
+      <c r="U57" s="31">
         <v>25</v>
       </c>
       <c r="V57" s="28"/>
       <c r="W57" s="5"/>
-      <c r="X57" s="33"/>
-      <c r="Y57" s="29"/>
+      <c r="X57" s="32"/>
+      <c r="Y57" s="21"/>
       <c r="Z57" s="26"/>
-      <c r="AA57" s="34"/>
-      <c r="AB57" s="35"/>
+      <c r="AA57" s="33"/>
+      <c r="AB57" s="34"/>
     </row>
     <row r="58" ht="40" spans="1:28">
       <c r="A58" s="5" t="s">
@@ -4687,16 +4675,16 @@
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
       <c r="T58" s="24"/>
-      <c r="U58" s="32">
+      <c r="U58" s="31">
         <v>25</v>
       </c>
       <c r="V58" s="24"/>
       <c r="W58" s="5"/>
-      <c r="X58" s="33"/>
+      <c r="X58" s="32"/>
       <c r="Y58" s="25"/>
       <c r="Z58" s="26"/>
-      <c r="AA58" s="34"/>
-      <c r="AB58" s="35"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="34"/>
     </row>
     <row r="59" ht="40" spans="1:28">
       <c r="A59" s="5" t="s">
@@ -4728,23 +4716,23 @@
       </c>
       <c r="L59" s="21"/>
       <c r="M59" s="28"/>
-      <c r="N59" s="29"/>
+      <c r="N59" s="21"/>
       <c r="O59" s="26"/>
-      <c r="P59" s="30"/>
+      <c r="P59" s="29"/>
       <c r="Q59" s="26"/>
       <c r="R59" s="28"/>
       <c r="S59" s="28"/>
       <c r="T59" s="28"/>
-      <c r="U59" s="32">
+      <c r="U59" s="31">
         <v>35</v>
       </c>
       <c r="V59" s="28"/>
       <c r="W59" s="5"/>
-      <c r="X59" s="33"/>
-      <c r="Y59" s="29"/>
+      <c r="X59" s="32"/>
+      <c r="Y59" s="21"/>
       <c r="Z59" s="26"/>
-      <c r="AA59" s="34"/>
-      <c r="AB59" s="35"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="34"/>
     </row>
     <row r="60" ht="20" spans="1:28">
       <c r="A60" s="5" t="s">
@@ -4783,16 +4771,16 @@
       <c r="R60" s="24"/>
       <c r="S60" s="24"/>
       <c r="T60" s="24"/>
-      <c r="U60" s="32">
+      <c r="U60" s="31">
         <v>25</v>
       </c>
       <c r="V60" s="24"/>
       <c r="W60" s="5"/>
-      <c r="X60" s="33"/>
+      <c r="X60" s="32"/>
       <c r="Y60" s="25"/>
       <c r="Z60" s="26"/>
-      <c r="AA60" s="34"/>
-      <c r="AB60" s="35"/>
+      <c r="AA60" s="33"/>
+      <c r="AB60" s="34"/>
     </row>
     <row r="61" ht="20" spans="1:28">
       <c r="A61" s="5" t="s">
@@ -4824,23 +4812,23 @@
       </c>
       <c r="L61" s="21"/>
       <c r="M61" s="28"/>
-      <c r="N61" s="29"/>
+      <c r="N61" s="21"/>
       <c r="O61" s="26"/>
-      <c r="P61" s="30"/>
+      <c r="P61" s="29"/>
       <c r="Q61" s="26"/>
       <c r="R61" s="28"/>
       <c r="S61" s="28"/>
       <c r="T61" s="28"/>
-      <c r="U61" s="32">
+      <c r="U61" s="31">
         <v>30</v>
       </c>
       <c r="V61" s="28"/>
       <c r="W61" s="5"/>
-      <c r="X61" s="33"/>
-      <c r="Y61" s="29"/>
+      <c r="X61" s="32"/>
+      <c r="Y61" s="21"/>
       <c r="Z61" s="26"/>
-      <c r="AA61" s="34"/>
-      <c r="AB61" s="35"/>
+      <c r="AA61" s="33"/>
+      <c r="AB61" s="34"/>
     </row>
     <row r="62" ht="40" spans="1:28">
       <c r="A62" s="5" t="s">
@@ -4879,16 +4867,16 @@
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
       <c r="T62" s="24"/>
-      <c r="U62" s="32">
+      <c r="U62" s="31">
         <v>25</v>
       </c>
       <c r="V62" s="24"/>
       <c r="W62" s="5"/>
-      <c r="X62" s="33"/>
+      <c r="X62" s="32"/>
       <c r="Y62" s="25"/>
       <c r="Z62" s="26"/>
-      <c r="AA62" s="34"/>
-      <c r="AB62" s="35"/>
+      <c r="AA62" s="33"/>
+      <c r="AB62" s="34"/>
     </row>
     <row r="63" ht="40" spans="1:28">
       <c r="A63" s="5" t="s">
@@ -4920,23 +4908,23 @@
       </c>
       <c r="L63" s="21"/>
       <c r="M63" s="28"/>
-      <c r="N63" s="29"/>
+      <c r="N63" s="21"/>
       <c r="O63" s="26"/>
-      <c r="P63" s="30"/>
+      <c r="P63" s="29"/>
       <c r="Q63" s="26"/>
       <c r="R63" s="28"/>
       <c r="S63" s="28"/>
       <c r="T63" s="28"/>
-      <c r="U63" s="32">
+      <c r="U63" s="31">
         <v>25</v>
       </c>
       <c r="V63" s="28"/>
       <c r="W63" s="5"/>
-      <c r="X63" s="33"/>
-      <c r="Y63" s="29"/>
+      <c r="X63" s="32"/>
+      <c r="Y63" s="21"/>
       <c r="Z63" s="26"/>
-      <c r="AA63" s="34"/>
-      <c r="AB63" s="35"/>
+      <c r="AA63" s="33"/>
+      <c r="AB63" s="34"/>
     </row>
     <row r="64" ht="40" spans="1:28">
       <c r="A64" s="5" t="s">
@@ -4975,16 +4963,16 @@
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
       <c r="T64" s="24"/>
-      <c r="U64" s="32">
+      <c r="U64" s="31">
         <v>35</v>
       </c>
       <c r="V64" s="24"/>
       <c r="W64" s="5"/>
-      <c r="X64" s="33"/>
+      <c r="X64" s="32"/>
       <c r="Y64" s="25"/>
       <c r="Z64" s="26"/>
-      <c r="AA64" s="34"/>
-      <c r="AB64" s="35"/>
+      <c r="AA64" s="33"/>
+      <c r="AB64" s="34"/>
     </row>
     <row r="65" ht="20" spans="1:28">
       <c r="A65" s="5" t="s">
@@ -5016,23 +5004,23 @@
       </c>
       <c r="L65" s="21"/>
       <c r="M65" s="28"/>
-      <c r="N65" s="29"/>
+      <c r="N65" s="21"/>
       <c r="O65" s="26"/>
-      <c r="P65" s="30"/>
+      <c r="P65" s="29"/>
       <c r="Q65" s="26"/>
       <c r="R65" s="28"/>
       <c r="S65" s="28"/>
       <c r="T65" s="28"/>
-      <c r="U65" s="32">
+      <c r="U65" s="31">
         <v>20</v>
       </c>
       <c r="V65" s="28"/>
       <c r="W65" s="5"/>
-      <c r="X65" s="33"/>
-      <c r="Y65" s="29"/>
+      <c r="X65" s="32"/>
+      <c r="Y65" s="21"/>
       <c r="Z65" s="26"/>
-      <c r="AA65" s="34"/>
-      <c r="AB65" s="35"/>
+      <c r="AA65" s="33"/>
+      <c r="AB65" s="34"/>
     </row>
     <row r="66" ht="40" spans="1:28">
       <c r="A66" s="5" t="s">
@@ -5071,16 +5059,16 @@
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
       <c r="T66" s="24"/>
-      <c r="U66" s="32">
+      <c r="U66" s="31">
         <v>20</v>
       </c>
       <c r="V66" s="24"/>
       <c r="W66" s="5"/>
-      <c r="X66" s="33"/>
+      <c r="X66" s="32"/>
       <c r="Y66" s="25"/>
       <c r="Z66" s="26"/>
-      <c r="AA66" s="34"/>
-      <c r="AB66" s="35"/>
+      <c r="AA66" s="33"/>
+      <c r="AB66" s="34"/>
     </row>
     <row r="67" ht="20" spans="1:28">
       <c r="A67" s="5" t="s">
@@ -5112,23 +5100,23 @@
       </c>
       <c r="L67" s="21"/>
       <c r="M67" s="28"/>
-      <c r="N67" s="29"/>
+      <c r="N67" s="21"/>
       <c r="O67" s="26"/>
-      <c r="P67" s="30"/>
+      <c r="P67" s="29"/>
       <c r="Q67" s="26"/>
       <c r="R67" s="28"/>
       <c r="S67" s="28"/>
       <c r="T67" s="28"/>
-      <c r="U67" s="32">
+      <c r="U67" s="31">
         <v>20</v>
       </c>
       <c r="V67" s="28"/>
       <c r="W67" s="5"/>
-      <c r="X67" s="33"/>
-      <c r="Y67" s="29"/>
+      <c r="X67" s="32"/>
+      <c r="Y67" s="21"/>
       <c r="Z67" s="26"/>
-      <c r="AA67" s="34"/>
-      <c r="AB67" s="35"/>
+      <c r="AA67" s="33"/>
+      <c r="AB67" s="34"/>
     </row>
     <row r="68" ht="20" spans="1:28">
       <c r="A68" s="5" t="s">
@@ -5167,16 +5155,16 @@
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
       <c r="T68" s="24"/>
-      <c r="U68" s="32">
+      <c r="U68" s="31">
         <v>18</v>
       </c>
       <c r="V68" s="24"/>
       <c r="W68" s="5"/>
-      <c r="X68" s="33"/>
+      <c r="X68" s="32"/>
       <c r="Y68" s="25"/>
       <c r="Z68" s="26"/>
-      <c r="AA68" s="34"/>
-      <c r="AB68" s="35"/>
+      <c r="AA68" s="33"/>
+      <c r="AB68" s="34"/>
     </row>
     <row r="69" ht="20" spans="1:28">
       <c r="A69" s="5" t="s">
@@ -5208,23 +5196,23 @@
       </c>
       <c r="L69" s="21"/>
       <c r="M69" s="28"/>
-      <c r="N69" s="29"/>
+      <c r="N69" s="21"/>
       <c r="O69" s="26"/>
-      <c r="P69" s="30"/>
+      <c r="P69" s="29"/>
       <c r="Q69" s="26"/>
       <c r="R69" s="28"/>
       <c r="S69" s="28"/>
       <c r="T69" s="28"/>
-      <c r="U69" s="32">
+      <c r="U69" s="31">
         <v>25</v>
       </c>
       <c r="V69" s="28"/>
       <c r="W69" s="5"/>
-      <c r="X69" s="33"/>
-      <c r="Y69" s="29"/>
+      <c r="X69" s="32"/>
+      <c r="Y69" s="21"/>
       <c r="Z69" s="26"/>
-      <c r="AA69" s="34"/>
-      <c r="AB69" s="35"/>
+      <c r="AA69" s="33"/>
+      <c r="AB69" s="34"/>
     </row>
     <row r="70" ht="20" spans="1:28">
       <c r="A70" s="5" t="s">
@@ -5263,16 +5251,16 @@
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
       <c r="T70" s="24"/>
-      <c r="U70" s="32">
+      <c r="U70" s="31">
         <v>20</v>
       </c>
       <c r="V70" s="24"/>
       <c r="W70" s="5"/>
-      <c r="X70" s="33"/>
+      <c r="X70" s="32"/>
       <c r="Y70" s="25"/>
       <c r="Z70" s="26"/>
-      <c r="AA70" s="34"/>
-      <c r="AB70" s="35"/>
+      <c r="AA70" s="33"/>
+      <c r="AB70" s="34"/>
     </row>
     <row r="71" ht="40" spans="1:28">
       <c r="A71" s="5" t="s">
@@ -5304,23 +5292,23 @@
       </c>
       <c r="L71" s="21"/>
       <c r="M71" s="28"/>
-      <c r="N71" s="29"/>
+      <c r="N71" s="21"/>
       <c r="O71" s="26"/>
-      <c r="P71" s="30"/>
+      <c r="P71" s="29"/>
       <c r="Q71" s="26"/>
       <c r="R71" s="28"/>
       <c r="S71" s="28"/>
       <c r="T71" s="28"/>
-      <c r="U71" s="32">
+      <c r="U71" s="31">
         <v>30</v>
       </c>
       <c r="V71" s="28"/>
       <c r="W71" s="5"/>
-      <c r="X71" s="33"/>
-      <c r="Y71" s="29"/>
+      <c r="X71" s="32"/>
+      <c r="Y71" s="21"/>
       <c r="Z71" s="26"/>
-      <c r="AA71" s="34"/>
-      <c r="AB71" s="35"/>
+      <c r="AA71" s="33"/>
+      <c r="AB71" s="34"/>
     </row>
     <row r="72" ht="40" spans="1:28">
       <c r="A72" s="5" t="s">
@@ -5359,16 +5347,16 @@
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
       <c r="T72" s="24"/>
-      <c r="U72" s="32">
+      <c r="U72" s="31">
         <v>30</v>
       </c>
       <c r="V72" s="24"/>
       <c r="W72" s="5"/>
-      <c r="X72" s="33"/>
+      <c r="X72" s="32"/>
       <c r="Y72" s="25"/>
       <c r="Z72" s="26"/>
-      <c r="AA72" s="34"/>
-      <c r="AB72" s="35"/>
+      <c r="AA72" s="33"/>
+      <c r="AB72" s="34"/>
     </row>
     <row r="73" ht="20" spans="1:28">
       <c r="A73" s="5" t="s">
@@ -5400,23 +5388,23 @@
       </c>
       <c r="L73" s="21"/>
       <c r="M73" s="28"/>
-      <c r="N73" s="29"/>
+      <c r="N73" s="21"/>
       <c r="O73" s="26"/>
-      <c r="P73" s="30"/>
+      <c r="P73" s="29"/>
       <c r="Q73" s="26"/>
       <c r="R73" s="28"/>
       <c r="S73" s="28"/>
       <c r="T73" s="28"/>
-      <c r="U73" s="32">
+      <c r="U73" s="31">
         <v>30</v>
       </c>
       <c r="V73" s="28"/>
       <c r="W73" s="5"/>
-      <c r="X73" s="33"/>
-      <c r="Y73" s="29"/>
+      <c r="X73" s="32"/>
+      <c r="Y73" s="21"/>
       <c r="Z73" s="26"/>
-      <c r="AA73" s="34"/>
-      <c r="AB73" s="35"/>
+      <c r="AA73" s="33"/>
+      <c r="AB73" s="34"/>
     </row>
     <row r="74" ht="40" spans="1:28">
       <c r="A74" s="5" t="s">
@@ -5455,16 +5443,16 @@
       <c r="R74" s="24"/>
       <c r="S74" s="24"/>
       <c r="T74" s="24"/>
-      <c r="U74" s="32">
+      <c r="U74" s="31">
         <v>30</v>
       </c>
       <c r="V74" s="24"/>
       <c r="W74" s="5"/>
-      <c r="X74" s="33"/>
+      <c r="X74" s="32"/>
       <c r="Y74" s="25"/>
       <c r="Z74" s="26"/>
-      <c r="AA74" s="34"/>
-      <c r="AB74" s="35"/>
+      <c r="AA74" s="33"/>
+      <c r="AB74" s="34"/>
     </row>
     <row r="75" ht="20" spans="1:28">
       <c r="A75" s="5" t="s">
@@ -5496,23 +5484,23 @@
       </c>
       <c r="L75" s="21"/>
       <c r="M75" s="28"/>
-      <c r="N75" s="29"/>
+      <c r="N75" s="21"/>
       <c r="O75" s="26"/>
-      <c r="P75" s="30"/>
+      <c r="P75" s="29"/>
       <c r="Q75" s="26"/>
       <c r="R75" s="28"/>
       <c r="S75" s="28"/>
       <c r="T75" s="28"/>
-      <c r="U75" s="32">
+      <c r="U75" s="31">
         <v>30</v>
       </c>
       <c r="V75" s="28"/>
       <c r="W75" s="5"/>
-      <c r="X75" s="33"/>
-      <c r="Y75" s="29"/>
+      <c r="X75" s="32"/>
+      <c r="Y75" s="21"/>
       <c r="Z75" s="26"/>
-      <c r="AA75" s="34"/>
-      <c r="AB75" s="35"/>
+      <c r="AA75" s="33"/>
+      <c r="AB75" s="34"/>
     </row>
     <row r="76" ht="40" spans="1:28">
       <c r="A76" s="5" t="s">
@@ -5551,16 +5539,16 @@
       <c r="R76" s="24"/>
       <c r="S76" s="24"/>
       <c r="T76" s="24"/>
-      <c r="U76" s="32">
+      <c r="U76" s="31">
         <v>30</v>
       </c>
       <c r="V76" s="24"/>
       <c r="W76" s="5"/>
-      <c r="X76" s="33"/>
+      <c r="X76" s="32"/>
       <c r="Y76" s="25"/>
       <c r="Z76" s="26"/>
-      <c r="AA76" s="34"/>
-      <c r="AB76" s="35"/>
+      <c r="AA76" s="33"/>
+      <c r="AB76" s="34"/>
     </row>
     <row r="77" ht="20" spans="1:28">
       <c r="A77" s="5" t="s">
@@ -5592,23 +5580,23 @@
       </c>
       <c r="L77" s="21"/>
       <c r="M77" s="28"/>
-      <c r="N77" s="29"/>
+      <c r="N77" s="21"/>
       <c r="O77" s="26"/>
-      <c r="P77" s="30"/>
+      <c r="P77" s="29"/>
       <c r="Q77" s="26"/>
       <c r="R77" s="28"/>
       <c r="S77" s="28"/>
       <c r="T77" s="28"/>
-      <c r="U77" s="32">
+      <c r="U77" s="31">
         <v>35</v>
       </c>
       <c r="V77" s="28"/>
       <c r="W77" s="5"/>
-      <c r="X77" s="33"/>
-      <c r="Y77" s="29"/>
+      <c r="X77" s="32"/>
+      <c r="Y77" s="21"/>
       <c r="Z77" s="26"/>
-      <c r="AA77" s="34"/>
-      <c r="AB77" s="35"/>
+      <c r="AA77" s="33"/>
+      <c r="AB77" s="34"/>
     </row>
     <row r="78" ht="40" spans="1:28">
       <c r="A78" s="5" t="s">
@@ -5647,16 +5635,16 @@
       <c r="R78" s="24"/>
       <c r="S78" s="24"/>
       <c r="T78" s="24"/>
-      <c r="U78" s="32">
+      <c r="U78" s="31">
         <v>40</v>
       </c>
       <c r="V78" s="24"/>
       <c r="W78" s="5"/>
-      <c r="X78" s="33"/>
+      <c r="X78" s="32"/>
       <c r="Y78" s="25"/>
       <c r="Z78" s="26"/>
-      <c r="AA78" s="34"/>
-      <c r="AB78" s="35"/>
+      <c r="AA78" s="33"/>
+      <c r="AB78" s="34"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1">
